--- a/survey/panel_template.xlsx
+++ b/survey/panel_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avashevko/proj/code/insead-network-ob2/survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67104447-28E2-3744-A6D8-979E583EDC90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B0ACF0-CAEC-0B4C-8860-34328CD4004A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22240" yWindow="0" windowWidth="22240" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zkc-qualtrics-panel" sheetId="1" r:id="rId1"/>
@@ -69,22 +69,22 @@
     <t>mburns@example.com</t>
   </si>
   <si>
-    <t>Ned</t>
-  </si>
-  <si>
-    <t>Flanders</t>
-  </si>
-  <si>
     <t>Sideshow</t>
   </si>
   <si>
     <t>Bob</t>
   </si>
   <si>
-    <t>nflanders@example.com</t>
-  </si>
-  <si>
     <t>sbob@example.com</t>
+  </si>
+  <si>
+    <t>Edna</t>
+  </si>
+  <si>
+    <t>Krabappel</t>
+  </si>
+  <si>
+    <t>ekrabappel@example.com</t>
   </si>
 </sst>
 </file>
@@ -938,11 +938,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="22.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -993,7 +996,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E35" si="0">_xlfn.CONCAT(A3," ",B3)</f>
+        <f t="shared" ref="E3:E6" si="0">_xlfn.CONCAT(A3," ",B3)</f>
         <v>Homer Simpson</v>
       </c>
     </row>
@@ -1017,31 +1020,31 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>Ned Flanders</v>
+        <v>Edna Krabappel</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1056,8 +1059,8 @@
     <hyperlink ref="C2" r:id="rId1" xr:uid="{A9D6F4C0-5940-CB45-9024-CF8C2E6065BC}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{9FC11B2F-9676-7045-B973-DBC22F70D170}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{5DF6303A-62A0-9843-A3D7-02FCFB4F2021}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{77877B8A-7BFB-774E-AAE0-94065439EC66}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{635C085E-0270-0748-BDF7-3E7F04D9F1F1}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{635C085E-0270-0748-BDF7-3E7F04D9F1F1}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{D16A6146-D830-8F4F-92BC-32303313C0B9}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
